--- a/OrangeHRMTest/target/test-classes/testdata/testdata.xlsx
+++ b/OrangeHRMTest/target/test-classes/testdata/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivy\eclipse-workspace\OrangeHRMTest\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivy\git\dhivyabharathi-ns\dhivyabharathi-ns\OrangeHRMTest\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C04BA-CDBC-4496-879A-7E16B7C3416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AAE4E7-82CC-4009-BC05-44B7E913CBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="666" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" tabRatio="666" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPositive" sheetId="1" r:id="rId1"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F62BB7-59BD-4143-BEF7-FBFFFAD3A50B}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/OrangeHRMTest/target/test-classes/testdata/testdata.xlsx
+++ b/OrangeHRMTest/target/test-classes/testdata/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivy\git\dhivyabharathi-ns\dhivyabharathi-ns\OrangeHRMTest\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AAE4E7-82CC-4009-BC05-44B7E913CBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA530450-B856-4DB9-9E18-F27D73185CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" tabRatio="666" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="666" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPositive" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,6 @@
     <t>Hubble</t>
   </si>
   <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>HubbleSpace</t>
-  </si>
-  <si>
     <t>nationality</t>
   </si>
   <si>
@@ -117,18 +111,9 @@
     <t>Orion</t>
   </si>
   <si>
-    <t>Harry</t>
-  </si>
-  <si>
     <t>McLary</t>
   </si>
   <si>
-    <t>OrionHarry</t>
-  </si>
-  <si>
-    <t>OrionHarry123</t>
-  </si>
-  <si>
     <t>1989-02-28</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>Dutch</t>
   </si>
   <si>
-    <t>HubbleSpace123</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -217,6 +199,24 @@
   </si>
   <si>
     <t>employee first name</t>
+  </si>
+  <si>
+    <t>Hary</t>
+  </si>
+  <si>
+    <t>OrionHary</t>
+  </si>
+  <si>
+    <t>HubbleSpacer</t>
+  </si>
+  <si>
+    <t>Spacer</t>
+  </si>
+  <si>
+    <t>HubbleSpacer123</t>
+  </si>
+  <si>
+    <t>OrionHary123</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9052E75-324C-40F6-B024-5A91B6304A9E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -723,13 +723,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -740,13 +740,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +759,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G4"/>
+      <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,16 +795,16 @@
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -830,16 +830,16 @@
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -853,28 +853,28 @@
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +922,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -960,19 +960,19 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -982,10 +982,10 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -995,16 +995,16 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
       </c>
       <c r="K2" s="3">
         <v>50000</v>
@@ -1017,29 +1017,29 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K3" s="3">
         <v>60000</v>
@@ -1053,28 +1053,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K4" s="3">
         <v>90000</v>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="C2" sqref="C2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,10 +1121,10 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1135,11 +1135,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1150,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/OrangeHRMTest/target/test-classes/testdata/testdata.xlsx
+++ b/OrangeHRMTest/target/test-classes/testdata/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivy\git\dhivyabharathi-ns\dhivyabharathi-ns\OrangeHRMTest\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA530450-B856-4DB9-9E18-F27D73185CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E7D017-94F2-4E94-B7A3-AD944D9A4106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="666" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="666" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPositive" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>username</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>OrionHary123</t>
+  </si>
+  <si>
+    <t>Admin username</t>
+  </si>
+  <si>
+    <t>Admin password</t>
   </si>
 </sst>
 </file>
@@ -671,22 +677,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9052E75-324C-40F6-B024-5A91B6304A9E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -759,11 +767,13 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -774,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
@@ -921,14 +931,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F62BB7-59BD-4143-BEF7-FBFFFAD3A50B}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -942,10 +952,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>52</v>
@@ -1092,20 +1102,22 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
